--- a/medicine/Enfance/Katerína_Mouríki/Katerína_Mouríki.xlsx
+++ b/medicine/Enfance/Katerína_Mouríki/Katerína_Mouríki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kater%C3%ADna_Mour%C3%ADki</t>
+          <t>Katerína_Mouríki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Katerína Mouríki (en grec moderne : Κατερίνα Μουρίκη) est née en 1951 à Athènes et a suivi des études de chimie et d'économie &amp; statistiques. Elle a travaillé pendant 17 ans à l'Université agricole d'Athènes, département écologie, en qualité d'assistante chimiste. Dans le même temps, elle était comédienne amateur au sein de la troupe de théâtre Parodos (Chemin de traverse), sous la direction de Lakis Kouretzis, metteur en scène de jeux théâtraux.
 Depuis 1983, Katerína Mouríki écrit des livres pour enfants. Elle est membre du Cercle des Livres Grecs pour Enfants et de la Société Féminine de Littérature. Elle a publié 23 ouvrages et une collection de cassettes d'histoires adaptées de Hans Christian Andersen et mises en musique par Anastasia Papadimitriou. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kater%C3%ADna_Mour%C3%ADki</t>
+          <t>Katerína_Mouríki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Autres activités culturelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1986 : elle travaille sur une chaîne publique de télévision (ERT1), en écrivant des textes (en vers, pour la plupart) pour l'émission Coups de pinceaux d'enfants.
 1987 : en tant qu'actrice, elle joue différents rôles dans 12 épisodes télé concernant la mythologie grecque, pour la chaine ERT1. Cette série a été diffusée en Australie, visant la diaspora grecque.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kater%C3%ADna_Mour%C3%ADki</t>
+          <t>Katerína_Mouríki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Retour de la petite souris Riri, éditeur ASE, 1985
 L'Ailé Conte éditeur Agyra, 1991
